--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Il33-Il1rl1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Il33-Il1rl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>Il1rl1</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>92.08060406712571</v>
+        <v>1.91946</v>
       </c>
       <c r="H2">
-        <v>92.08060406712571</v>
+        <v>5.758380000000001</v>
       </c>
       <c r="I2">
-        <v>0.9796604356816734</v>
+        <v>0.01973940853082515</v>
       </c>
       <c r="J2">
-        <v>0.9796604356816734</v>
+        <v>0.01973940853082515</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>7.27864035650258</v>
+        <v>0.1979566666666667</v>
       </c>
       <c r="N2">
-        <v>7.27864035650258</v>
+        <v>0.59387</v>
       </c>
       <c r="O2">
-        <v>0.9410755940061858</v>
+        <v>0.0243494466012499</v>
       </c>
       <c r="P2">
-        <v>0.9410755940061858</v>
+        <v>0.0243494466012499</v>
       </c>
       <c r="Q2">
-        <v>670.2216008141168</v>
+        <v>0.3799699034</v>
       </c>
       <c r="R2">
-        <v>670.2216008141168</v>
+        <v>3.4197291306</v>
       </c>
       <c r="S2">
-        <v>0.9219345264334895</v>
+        <v>0.0004806436739615836</v>
       </c>
       <c r="T2">
-        <v>0.9219345264334895</v>
+        <v>0.0004806436739615837</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>92.08060406712571</v>
+        <v>1.91946</v>
       </c>
       <c r="H3">
-        <v>92.08060406712571</v>
+        <v>5.758380000000001</v>
       </c>
       <c r="I3">
-        <v>0.9796604356816734</v>
+        <v>0.01973940853082515</v>
       </c>
       <c r="J3">
-        <v>0.9796604356816734</v>
+        <v>0.01973940853082515</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.32437916705867</v>
+        <v>7.316792666666667</v>
       </c>
       <c r="N3">
-        <v>0.32437916705867</v>
+        <v>21.950378</v>
       </c>
       <c r="O3">
-        <v>0.04193988195202586</v>
+        <v>0.8999942024150918</v>
       </c>
       <c r="P3">
-        <v>0.04193988195202586</v>
+        <v>0.8999942024150918</v>
       </c>
       <c r="Q3">
-        <v>29.86902964955341</v>
+        <v>14.04429085196</v>
       </c>
       <c r="R3">
-        <v>29.86902964955341</v>
+        <v>126.39861766764</v>
       </c>
       <c r="S3">
-        <v>0.0410868430255596</v>
+        <v>0.01776535323684564</v>
       </c>
       <c r="T3">
-        <v>0.0410868430255596</v>
+        <v>0.01776535323684564</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>92.08060406712571</v>
+        <v>1.91946</v>
       </c>
       <c r="H4">
-        <v>92.08060406712571</v>
+        <v>5.758380000000001</v>
       </c>
       <c r="I4">
-        <v>0.9796604356816734</v>
+        <v>0.01973940853082515</v>
       </c>
       <c r="J4">
-        <v>0.9796604356816734</v>
+        <v>0.01973940853082515</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.131364837122465</v>
+        <v>0.07378900000000001</v>
       </c>
       <c r="N4">
-        <v>0.131364837122465</v>
+        <v>0.221367</v>
       </c>
       <c r="O4">
-        <v>0.01698452404178843</v>
+        <v>0.009076336480675715</v>
       </c>
       <c r="P4">
-        <v>0.01698452404178843</v>
+        <v>0.009076336480675714</v>
       </c>
       <c r="Q4">
-        <v>12.09615355541616</v>
+        <v>0.14163503394</v>
       </c>
       <c r="R4">
-        <v>12.09615355541616</v>
+        <v>1.27471530546</v>
       </c>
       <c r="S4">
-        <v>0.01663906622262431</v>
+        <v>0.0001791615137552897</v>
       </c>
       <c r="T4">
-        <v>0.01663906622262431</v>
+        <v>0.0001791615137552897</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.91176381190741</v>
+        <v>1.91946</v>
       </c>
       <c r="H5">
-        <v>1.91176381190741</v>
+        <v>5.758380000000001</v>
       </c>
       <c r="I5">
-        <v>0.02033956431832661</v>
+        <v>0.01973940853082515</v>
       </c>
       <c r="J5">
-        <v>0.02033956431832661</v>
+        <v>0.01973940853082515</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.27864035650258</v>
+        <v>0.3768583333333333</v>
       </c>
       <c r="N5">
-        <v>7.27864035650258</v>
+        <v>1.130575</v>
       </c>
       <c r="O5">
-        <v>0.9410755940061858</v>
+        <v>0.04635505344807466</v>
       </c>
       <c r="P5">
-        <v>0.9410755940061858</v>
+        <v>0.04635505344807466</v>
       </c>
       <c r="Q5">
-        <v>13.91504123345048</v>
+        <v>0.7233644965</v>
       </c>
       <c r="R5">
-        <v>13.91504123345048</v>
+        <v>6.5102804685</v>
       </c>
       <c r="S5">
-        <v>0.01914106757269624</v>
+        <v>0.0009150213374797807</v>
       </c>
       <c r="T5">
-        <v>0.01914106757269624</v>
+        <v>0.0009150213374797808</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.91176381190741</v>
+        <v>1.91946</v>
       </c>
       <c r="H6">
-        <v>1.91176381190741</v>
+        <v>5.758380000000001</v>
       </c>
       <c r="I6">
-        <v>0.02033956431832661</v>
+        <v>0.01973940853082515</v>
       </c>
       <c r="J6">
-        <v>0.02033956431832661</v>
+        <v>0.01973940853082515</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.32437916705867</v>
+        <v>0.1644253333333333</v>
       </c>
       <c r="N6">
-        <v>0.32437916705867</v>
+        <v>0.493276</v>
       </c>
       <c r="O6">
-        <v>0.04193988195202586</v>
+        <v>0.02022496105490788</v>
       </c>
       <c r="P6">
-        <v>0.04193988195202586</v>
+        <v>0.02022496105490788</v>
       </c>
       <c r="Q6">
-        <v>0.6201363529194335</v>
+        <v>0.31560785032</v>
       </c>
       <c r="R6">
-        <v>0.6201363529194335</v>
+        <v>2.84047065288</v>
       </c>
       <c r="S6">
-        <v>0.0008530389264662552</v>
+        <v>0.000399228768782855</v>
       </c>
       <c r="T6">
-        <v>0.0008530389264662552</v>
+        <v>0.0003992287687828551</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +835,619 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>92.76322666666665</v>
+      </c>
+      <c r="H7">
+        <v>278.28968</v>
+      </c>
+      <c r="I7">
+        <v>0.9539616495320905</v>
+      </c>
+      <c r="J7">
+        <v>0.9539616495320906</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.1979566666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.59387</v>
+      </c>
+      <c r="O7">
+        <v>0.0243494466012499</v>
+      </c>
+      <c r="P7">
+        <v>0.0243494466012499</v>
+      </c>
+      <c r="Q7">
+        <v>18.36309914017778</v>
+      </c>
+      <c r="R7">
+        <v>165.2678922616</v>
+      </c>
+      <c r="S7">
+        <v>0.02322843824492191</v>
+      </c>
+      <c r="T7">
+        <v>0.02322843824492191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>92.76322666666665</v>
+      </c>
+      <c r="H8">
+        <v>278.28968</v>
+      </c>
+      <c r="I8">
+        <v>0.9539616495320905</v>
+      </c>
+      <c r="J8">
+        <v>0.9539616495320906</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>7.316792666666667</v>
+      </c>
+      <c r="N8">
+        <v>21.950378</v>
+      </c>
+      <c r="O8">
+        <v>0.8999942024150918</v>
+      </c>
+      <c r="P8">
+        <v>0.8999942024150918</v>
+      </c>
+      <c r="Q8">
+        <v>678.7292966110044</v>
+      </c>
+      <c r="R8">
+        <v>6108.56366949904</v>
+      </c>
+      <c r="S8">
+        <v>0.8585599539052191</v>
+      </c>
+      <c r="T8">
+        <v>0.8585599539052192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>92.76322666666665</v>
+      </c>
+      <c r="H9">
+        <v>278.28968</v>
+      </c>
+      <c r="I9">
+        <v>0.9539616495320905</v>
+      </c>
+      <c r="J9">
+        <v>0.9539616495320906</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.07378900000000001</v>
+      </c>
+      <c r="N9">
+        <v>0.221367</v>
+      </c>
+      <c r="O9">
+        <v>0.009076336480675715</v>
+      </c>
+      <c r="P9">
+        <v>0.009076336480675714</v>
+      </c>
+      <c r="Q9">
+        <v>6.844905732506667</v>
+      </c>
+      <c r="R9">
+        <v>61.60415159255999</v>
+      </c>
+      <c r="S9">
+        <v>0.008658476920813694</v>
+      </c>
+      <c r="T9">
+        <v>0.008658476920813694</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>92.76322666666665</v>
+      </c>
+      <c r="H10">
+        <v>278.28968</v>
+      </c>
+      <c r="I10">
+        <v>0.9539616495320905</v>
+      </c>
+      <c r="J10">
+        <v>0.9539616495320906</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.3768583333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.130575</v>
+      </c>
+      <c r="O10">
+        <v>0.04635505344807466</v>
+      </c>
+      <c r="P10">
+        <v>0.04635505344807466</v>
+      </c>
+      <c r="Q10">
+        <v>34.95859499622222</v>
+      </c>
+      <c r="R10">
+        <v>314.6273549659999</v>
+      </c>
+      <c r="S10">
+        <v>0.04422094325147352</v>
+      </c>
+      <c r="T10">
+        <v>0.04422094325147353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>92.76322666666665</v>
+      </c>
+      <c r="H11">
+        <v>278.28968</v>
+      </c>
+      <c r="I11">
+        <v>0.9539616495320905</v>
+      </c>
+      <c r="J11">
+        <v>0.9539616495320906</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.1644253333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.493276</v>
+      </c>
+      <c r="O11">
+        <v>0.02022496105490788</v>
+      </c>
+      <c r="P11">
+        <v>0.02022496105490788</v>
+      </c>
+      <c r="Q11">
+        <v>15.25262446574222</v>
+      </c>
+      <c r="R11">
+        <v>137.27362019168</v>
+      </c>
+      <c r="S11">
+        <v>0.01929383720966221</v>
+      </c>
+      <c r="T11">
+        <v>0.01929383720966222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.557309</v>
+      </c>
+      <c r="H12">
+        <v>7.671927</v>
+      </c>
+      <c r="I12">
+        <v>0.02629894193708435</v>
+      </c>
+      <c r="J12">
+        <v>0.02629894193708435</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.1979566666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.59387</v>
+      </c>
+      <c r="O12">
+        <v>0.0243494466012499</v>
+      </c>
+      <c r="P12">
+        <v>0.0243494466012499</v>
+      </c>
+      <c r="Q12">
+        <v>0.5062363652766667</v>
+      </c>
+      <c r="R12">
+        <v>4.55612728749</v>
+      </c>
+      <c r="S12">
+        <v>0.0006403646823664068</v>
+      </c>
+      <c r="T12">
+        <v>0.0006403646823664069</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.91176381190741</v>
-      </c>
-      <c r="H7">
-        <v>1.91176381190741</v>
-      </c>
-      <c r="I7">
-        <v>0.02033956431832661</v>
-      </c>
-      <c r="J7">
-        <v>0.02033956431832661</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.131364837122465</v>
-      </c>
-      <c r="N7">
-        <v>0.131364837122465</v>
-      </c>
-      <c r="O7">
-        <v>0.01698452404178843</v>
-      </c>
-      <c r="P7">
-        <v>0.01698452404178843</v>
-      </c>
-      <c r="Q7">
-        <v>0.2511385417678397</v>
-      </c>
-      <c r="R7">
-        <v>0.2511385417678397</v>
-      </c>
-      <c r="S7">
-        <v>0.0003454578191641204</v>
-      </c>
-      <c r="T7">
-        <v>0.0003454578191641204</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.557309</v>
+      </c>
+      <c r="H13">
+        <v>7.671927</v>
+      </c>
+      <c r="I13">
+        <v>0.02629894193708435</v>
+      </c>
+      <c r="J13">
+        <v>0.02629894193708435</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>7.316792666666667</v>
+      </c>
+      <c r="N13">
+        <v>21.950378</v>
+      </c>
+      <c r="O13">
+        <v>0.8999942024150918</v>
+      </c>
+      <c r="P13">
+        <v>0.8999942024150918</v>
+      </c>
+      <c r="Q13">
+        <v>18.71129973760067</v>
+      </c>
+      <c r="R13">
+        <v>168.401697638406</v>
+      </c>
+      <c r="S13">
+        <v>0.02366889527302703</v>
+      </c>
+      <c r="T13">
+        <v>0.02366889527302704</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.557309</v>
+      </c>
+      <c r="H14">
+        <v>7.671927</v>
+      </c>
+      <c r="I14">
+        <v>0.02629894193708435</v>
+      </c>
+      <c r="J14">
+        <v>0.02629894193708435</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.07378900000000001</v>
+      </c>
+      <c r="N14">
+        <v>0.221367</v>
+      </c>
+      <c r="O14">
+        <v>0.009076336480675715</v>
+      </c>
+      <c r="P14">
+        <v>0.009076336480675714</v>
+      </c>
+      <c r="Q14">
+        <v>0.188701273801</v>
+      </c>
+      <c r="R14">
+        <v>1.698311464209</v>
+      </c>
+      <c r="S14">
+        <v>0.0002386980461067311</v>
+      </c>
+      <c r="T14">
+        <v>0.0002386980461067311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.557309</v>
+      </c>
+      <c r="H15">
+        <v>7.671927</v>
+      </c>
+      <c r="I15">
+        <v>0.02629894193708435</v>
+      </c>
+      <c r="J15">
+        <v>0.02629894193708435</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.3768583333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.130575</v>
+      </c>
+      <c r="O15">
+        <v>0.04635505344807466</v>
+      </c>
+      <c r="P15">
+        <v>0.04635505344807466</v>
+      </c>
+      <c r="Q15">
+        <v>0.9637432075583332</v>
+      </c>
+      <c r="R15">
+        <v>8.673688868025</v>
+      </c>
+      <c r="S15">
+        <v>0.001219088859121357</v>
+      </c>
+      <c r="T15">
+        <v>0.001219088859121357</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.557309</v>
+      </c>
+      <c r="H16">
+        <v>7.671927</v>
+      </c>
+      <c r="I16">
+        <v>0.02629894193708435</v>
+      </c>
+      <c r="J16">
+        <v>0.02629894193708435</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.1644253333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.493276</v>
+      </c>
+      <c r="O16">
+        <v>0.02022496105490788</v>
+      </c>
+      <c r="P16">
+        <v>0.02022496105490788</v>
+      </c>
+      <c r="Q16">
+        <v>0.4204863847613334</v>
+      </c>
+      <c r="R16">
+        <v>3.784377462852</v>
+      </c>
+      <c r="S16">
+        <v>0.0005318950764628146</v>
+      </c>
+      <c r="T16">
+        <v>0.0005318950764628147</v>
       </c>
     </row>
   </sheetData>
